--- a/basest.xlsx
+++ b/basest.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliabe\Desktop\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ABEE17-E546-4137-ADF2-FA0758EB8D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60F84F-FEC8-41EB-A055-0D36ACB2C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{A880D8BF-851B-4E42-B0F3-96EEC5928E95}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{A880D8BF-851B-4E42-B0F3-96EEC5928E95}"/>
   </bookViews>
   <sheets>
     <sheet name="lei6108" sheetId="1" r:id="rId1"/>
     <sheet name="mult" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mult!$A$1:$T$86</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="389">
   <si>
     <t>ITEM</t>
   </si>
@@ -1201,6 +1204,9 @@
   </si>
   <si>
     <t>Segm</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1284,6 +1290,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB453D4-C5A1-4543-9CB8-0B1977334E2E}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1681,7 @@
         <v>80</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1692,7 +1701,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>205</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -1732,7 +1741,7 @@
         <v>91.49</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1752,7 +1761,7 @@
         <v>23.46</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,7 +1781,7 @@
         <v>91.49</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +1801,7 @@
         <v>91.49</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,7 +1821,7 @@
         <v>91.49</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,7 +1841,7 @@
         <v>91.49</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,7 +1881,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,7 +1901,7 @@
         <v>45.59</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,7 +1921,7 @@
         <v>45.59</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,7 +1941,7 @@
         <v>45.59</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,7 +1961,7 @@
         <v>45.59</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,7 +1981,7 @@
         <v>45.59</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,7 +2001,7 @@
         <v>45.59</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,7 +2021,7 @@
         <v>45.59</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2041,7 @@
         <v>45.59</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,7 +2061,7 @@
         <v>45.59</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2072,7 +2081,7 @@
         <v>45.59</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,7 +2101,7 @@
         <v>61.31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,7 +2121,7 @@
         <v>253.62</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,7 +2141,7 @@
         <v>253.62</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,7 +2161,7 @@
         <v>253.62</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,7 +2181,7 @@
         <v>253.62</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2201,7 @@
         <v>253.62</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,7 +2221,7 @@
         <v>253.62</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,7 +2241,7 @@
         <v>253.62</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2252,7 +2261,7 @@
         <v>253.62</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2292,7 +2301,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2312,7 +2321,7 @@
         <v>45.59</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2332,7 +2341,7 @@
         <v>61.31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2352,7 +2361,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>211</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
@@ -2372,7 +2381,7 @@
         <v>70</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -2392,7 +2401,7 @@
         <v>70</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2430,7 +2439,7 @@
         <v>70</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2448,7 +2457,7 @@
         <v>70</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
@@ -2468,7 +2477,7 @@
         <v>70</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -2488,7 +2497,7 @@
         <v>70</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2517,7 @@
         <v>70</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2526,7 +2535,7 @@
         <v>70</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2544,7 +2553,7 @@
         <v>70</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2562,7 +2571,7 @@
         <v>70</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,7 +2591,7 @@
         <v>70</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,7 +2609,7 @@
         <v>70</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,7 +2629,7 @@
         <v>70</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2640,7 +2649,7 @@
         <v>70</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,8 +2668,8 @@
       <c r="E52" s="4">
         <v>60.03</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>218</v>
+      <c r="F52" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,8 +2688,8 @@
       <c r="E53" s="4">
         <v>102.31</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>218</v>
+      <c r="F53" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,8 +2708,8 @@
       <c r="E54" s="4">
         <v>53.13</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>218</v>
+      <c r="F54" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,8 +2728,8 @@
       <c r="E55" s="4">
         <v>102.31</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>218</v>
+      <c r="F55" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,8 +2748,8 @@
       <c r="E56" s="4">
         <v>63.67</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>218</v>
+      <c r="F56" s="13" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2749,15 +2758,17 @@
     <mergeCell ref="A48:A49"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5470EE4-F54F-4A9D-A082-685A32FE9E90}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +2841,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>23.31</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -2954,7 +2965,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -3078,7 +3089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -3326,7 +3337,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>215</v>
       </c>
@@ -3450,7 +3461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -3512,7 +3523,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -3574,7 +3585,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -3636,7 +3647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>28.73</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3760,7 +3771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -3822,7 +3833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -3884,7 +3895,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -3946,7 +3957,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -4008,7 +4019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>243</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -4194,7 +4205,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -4256,7 +4267,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>252</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>254</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -4442,7 +4453,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -4504,7 +4515,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>261</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -4628,7 +4639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>265</v>
       </c>
@@ -4690,7 +4701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>267</v>
       </c>
@@ -4752,7 +4763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>270</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>272</v>
       </c>
@@ -4876,7 +4887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>274</v>
       </c>
@@ -4938,7 +4949,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>276</v>
       </c>
@@ -5000,7 +5011,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -5062,7 +5073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -5124,7 +5135,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -5186,7 +5197,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>284</v>
       </c>
@@ -5248,7 +5259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>286</v>
       </c>
@@ -5310,7 +5321,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>288</v>
       </c>
@@ -5372,7 +5383,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>290</v>
       </c>
@@ -5434,7 +5445,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>292</v>
       </c>
@@ -5496,7 +5507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>294</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -5620,7 +5631,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>298</v>
       </c>
@@ -5682,7 +5693,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>300</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -5806,7 +5817,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>307</v>
       </c>
@@ -5930,7 +5941,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>309</v>
       </c>
@@ -5992,7 +6003,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>311</v>
       </c>
@@ -6054,7 +6065,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>313</v>
       </c>
@@ -6116,7 +6127,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>315</v>
       </c>
@@ -6178,7 +6189,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>317</v>
       </c>
@@ -6240,7 +6251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>319</v>
       </c>
@@ -6302,7 +6313,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>321</v>
       </c>
@@ -6364,7 +6375,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>323</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -6488,7 +6499,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>327</v>
       </c>
@@ -6550,7 +6561,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>329</v>
       </c>
@@ -6612,7 +6623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>332</v>
       </c>
@@ -6674,7 +6685,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>334</v>
       </c>
@@ -6736,7 +6747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>336</v>
       </c>
@@ -6798,7 +6809,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>339</v>
       </c>
@@ -6860,7 +6871,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>341</v>
       </c>
@@ -6922,7 +6933,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>343</v>
       </c>
@@ -6984,7 +6995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>345</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>347</v>
       </c>
@@ -7108,7 +7119,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>349</v>
       </c>
@@ -7170,7 +7181,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>351</v>
       </c>
@@ -7232,7 +7243,7 @@
         <v>22.52</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>353</v>
       </c>
@@ -7294,7 +7305,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>355</v>
       </c>
@@ -7356,7 +7367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>357</v>
       </c>
@@ -7418,7 +7429,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>359</v>
       </c>
@@ -7480,7 +7491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>361</v>
       </c>
@@ -7542,7 +7553,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>363</v>
       </c>
@@ -7604,7 +7615,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>365</v>
       </c>
@@ -7666,7 +7677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>367</v>
       </c>
@@ -7728,7 +7739,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>370</v>
       </c>
@@ -7790,7 +7801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>373</v>
       </c>
@@ -7852,7 +7863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>375</v>
       </c>
@@ -7914,7 +7925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>378</v>
       </c>
@@ -7976,7 +7987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>380</v>
       </c>
@@ -8038,7 +8049,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>383</v>
       </c>
@@ -8101,6 +8112,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T86" xr:uid="{C5470EE4-F54F-4A9D-A082-685A32FE9E90}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="08"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T86">
+      <sortCondition ref="G1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>